--- a/Api.xlsx
+++ b/Api.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -260,6 +260,30 @@
   </si>
   <si>
     <t xml:space="preserve">Votes = map from id to votes, playerRoles = map from id to roles, winTeam = id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ready</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player Ready</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebroadcast of above row to all clients, with player ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Ready</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replayAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All ready; expect to follow with setupStart</t>
   </si>
 </sst>
 </file>
@@ -274,6 +298,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -295,6 +320,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -302,6 +328,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,7 +382,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,13 +411,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.46"/>
@@ -745,12 +772,56 @@
         <v>79</v>
       </c>
     </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A34:F34"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Api.xlsx
+++ b/Api.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -61,6 +61,18 @@
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">Create Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic error</t>
+  </si>
+  <si>
     <t xml:space="preserve">Join Room</t>
   </si>
   <si>
@@ -76,7 +88,7 @@
     <t xml:space="preserve">joinYes</t>
   </si>
   <si>
-    <t xml:space="preserve">playerId</t>
+    <t xml:space="preserve">playerID, players</t>
   </si>
   <si>
     <t xml:space="preserve">Join Fail</t>
@@ -85,12 +97,21 @@
     <t xml:space="preserve">joinNo</t>
   </si>
   <si>
-    <t xml:space="preserve">reason</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reason is a string displayed directly to users</t>
   </si>
   <si>
+    <t xml:space="preserve">Player Joined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joinNew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playerID, name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broadcast to all when player joins</t>
+  </si>
+  <si>
     <t xml:space="preserve">Game Setup</t>
   </si>
   <si>
@@ -112,7 +133,7 @@
     <t xml:space="preserve">setupInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">roles, roleTime, discussTime</t>
+    <t xml:space="preserve">roleAdd, roleSub, roleTime, talkTime</t>
   </si>
   <si>
     <t xml:space="preserve">Times in seconds, roles in role id array</t>
@@ -130,10 +151,22 @@
     <t xml:space="preserve">setupFinal</t>
   </si>
   <si>
-    <t xml:space="preserve">roles, time, names</t>
+    <t xml:space="preserve">roles, roleTime, talkTime, names</t>
   </si>
   <si>
     <t xml:space="preserve">Wake order can be computed client-side; broadcast to all; names in pID order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setupRole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The role id for a particular player (sent to each individually, of course)</t>
   </si>
   <si>
     <t xml:space="preserve">Night</t>
@@ -373,7 +406,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -387,10 +420,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,17 +440,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="69.51"/>
   </cols>
   <sheetData>
@@ -478,7 +507,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -487,341 +516,383 @@
       <c r="E5" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>16</v>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="0" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="C11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>27</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="C13" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>37</v>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>46</v>
-      </c>
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="D23" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="E24" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="E25" s="0" t="s">
         <v>64</v>
       </c>
+      <c r="F25" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>72</v>
-      </c>
+      <c r="A30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>73</v>
+      <c r="C31" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="B34" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>81</v>
+      <c r="C35" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>87</v>
+      <c r="F39" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A37:F37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Api.xlsx
+++ b/Api.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t xml:space="preserve">wake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roleStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sent to all players to update them on current role progress</t>
   </si>
   <si>
     <t xml:space="preserve">Display Message</t>
@@ -440,10 +449,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -694,196 +703,210 @@
         <v>53</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="E24" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="E25" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="E26" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+      <c r="D27" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="E27" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="F27" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="E28" s="0" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="F28" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>78</v>
-      </c>
+      <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="0" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>83</v>
       </c>
+      <c r="E33" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="0" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
+      <c r="B35" s="0" t="s">
         <v>87</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>88</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="D36" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="E36" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>93</v>
-      </c>
+      <c r="A38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
-        <v>94</v>
+      <c r="B39" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>97</v>
+      <c r="E40" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -891,8 +914,8 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:F38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Api.xlsx
+++ b/Api.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t xml:space="preserve">day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boardInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record from playerID to string describing info (revealer, sentinel, etc.)</t>
   </si>
   <si>
     <t xml:space="preserve">Time Sync</t>
@@ -451,11 +457,11 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.46"/>
@@ -815,60 +821,66 @@
       <c r="D32" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="E32" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -878,35 +890,35 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Api.xlsx
+++ b/Api.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -289,6 +289,12 @@
     <t xml:space="preserve">voteReady</t>
   </si>
   <si>
+    <t xml:space="preserve">Vote Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voteStart</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vote</t>
   </si>
   <si>
@@ -298,6 +304,18 @@
     <t xml:space="preserve">Player ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Vote Received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voteReceived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playerID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player ID that sent the vote; broadcast to all</t>
+  </si>
+  <si>
     <t xml:space="preserve">Result</t>
   </si>
   <si>
@@ -307,7 +325,7 @@
     <t xml:space="preserve">votes, playerRoles, winTeam</t>
   </si>
   <si>
-    <t xml:space="preserve">Votes = map from id to votes, playerRoles = map from id to roles, winTeam = id</t>
+    <t xml:space="preserve">Votes = array from id to votes, playerRoles = array from id to roles, winTeam = id</t>
   </si>
   <si>
     <t xml:space="preserve">New Game</t>
@@ -455,10 +473,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -851,74 +869,96 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>89</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="0" t="s">
+      <c r="F36" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>95</v>
       </c>
+      <c r="E37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="D38" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="0" t="s">
+      <c r="A40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>103</v>
+      <c r="F42" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +967,7 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Api.xlsx
+++ b/Api.xlsx
@@ -325,7 +325,7 @@
     <t xml:space="preserve">votes, playerRoles, winTeam</t>
   </si>
   <si>
-    <t xml:space="preserve">Votes = array from id to votes, playerRoles = array from id to roles, winTeam = id</t>
+    <t xml:space="preserve">Votes = array from id to votes, playerRoles = array from id to roles, winTeam = id[]</t>
   </si>
   <si>
     <t xml:space="preserve">New Game</t>
@@ -479,7 +479,7 @@
       <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.46"/>

--- a/Api.xlsx
+++ b/Api.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -473,7 +473,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
@@ -870,94 +870,108 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E37" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F37" s="0" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D39" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E39" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F39" s="0" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D44" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F44" s="0" t="s">
         <v>109</v>
       </c>
     </row>
@@ -967,7 +981,7 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Api.xlsx
+++ b/Api.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -331,25 +331,16 @@
     <t xml:space="preserve">New Game</t>
   </si>
   <si>
-    <t xml:space="preserve">Ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">replay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player Ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebroadcast of above row to all clients, with player ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">replayAll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All ready; expect to follow with setupStart</t>
+    <t xml:space="preserve">Restart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Host to server to restart game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restarting game; expect to follow with setupStart</t>
   </si>
 </sst>
 </file>
@@ -473,10 +464,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -949,30 +940,19 @@
       <c r="D42" s="0" t="s">
         <v>104</v>
       </c>
+      <c r="F42" s="0" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F43" s="0" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Api.xlsx
+++ b/Api.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t xml:space="preserve">Restarting game; expect to follow with setupStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disconnect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disconn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End game</t>
   </si>
 </sst>
 </file>
@@ -464,10 +473,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -953,6 +962,17 @@
       </c>
       <c r="F43" s="0" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Api.xlsx
+++ b/Api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mt_xi\Documents\Projects\Websites\onuw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A01E22-D3BF-4DAA-A689-DF633792CE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C46175-B1B1-4615-BD6D-E74AE842B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,9 +189,6 @@
     <t>roleStart</t>
   </si>
   <si>
-    <t>Sent to all players to update them on current role progress</t>
-  </si>
-  <si>
     <t>Display Message</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>End game</t>
+  </si>
+  <si>
+    <t>Sent to all players to update current role progress; role = wake constructor name</t>
   </si>
 </sst>
 </file>
@@ -406,11 +406,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -740,34 +740,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -856,17 +856,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -878,7 +878,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -954,14 +954,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
@@ -971,10 +971,10 @@
         <v>51</v>
       </c>
       <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
         <v>82</v>
-      </c>
-      <c r="F21" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -988,150 +988,150 @@
         <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>59</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>63</v>
-      </c>
-      <c r="F25" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
         <v>65</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>66</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>67</v>
-      </c>
-      <c r="F26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
         <v>69</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>74</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>75</v>
-      </c>
-      <c r="F28" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
         <v>77</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
         <v>80</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>81</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>82</v>
-      </c>
-      <c r="F32" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
         <v>84</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
         <v>85</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
         <v>87</v>
-      </c>
-      <c r="D34" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
         <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>88</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1142,95 +1142,95 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
         <v>89</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
         <v>91</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
         <v>94</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>95</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>96</v>
-      </c>
-      <c r="F38" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
         <v>98</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>99</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>100</v>
       </c>
-      <c r="F39" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
         <v>103</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>104</v>
-      </c>
-      <c r="F42" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
         <v>103</v>
       </c>
-      <c r="D43" t="s">
-        <v>104</v>
-      </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
         <v>107</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>108</v>
-      </c>
-      <c r="F44" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
